--- a/gd32f303_v1/КД/protokol_ble_tonometer.xlsx
+++ b/gd32f303_v1/КД/protokol_ble_tonometer.xlsx
@@ -627,32 +627,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,13 +1193,13 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="58">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1213,9 +1213,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
@@ -1369,10 +1369,10 @@
       <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -1381,70 +1381,70 @@
       <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="14" t="s">
         <v>65</v>
       </c>
@@ -1477,13 +1477,13 @@
       <c r="F23" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="61">
-        <v>1</v>
-      </c>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="58">
+        <v>1</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="58">
         <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
@@ -1492,21 +1492,21 @@
       <c r="E25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="63"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1524,7 +1524,7 @@
       <c r="E27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
@@ -1542,7 +1542,7 @@
       <c r="E28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -1556,13 +1556,13 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61">
-        <v>1</v>
-      </c>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="58">
+        <v>1</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="58">
         <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -1571,21 +1571,21 @@
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
@@ -1603,7 +1603,7 @@
       <c r="E33" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
@@ -1621,7 +1621,7 @@
       <c r="E34" s="36">
         <v>0</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
@@ -1639,7 +1639,7 @@
       <c r="E35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
@@ -1651,7 +1651,7 @@
       <c r="E36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
@@ -1663,7 +1663,7 @@
       <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
@@ -1681,7 +1681,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
@@ -1693,19 +1693,19 @@
       <c r="E39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -1723,7 +1723,7 @@
       <c r="E41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -1734,13 +1734,13 @@
       <c r="F42" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="61">
-        <v>1</v>
-      </c>
-      <c r="B44" s="58" t="s">
+      <c r="A44" s="58">
+        <v>1</v>
+      </c>
+      <c r="B44" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="58">
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -1749,21 +1749,21 @@
       <c r="E44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="62" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
@@ -1781,16 +1781,16 @@
       <c r="E46" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="56"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
+      <c r="A47" s="56">
         <v>3</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="56">
         <v>7</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1799,31 +1799,31 @@
       <c r="E47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="59"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
@@ -1841,7 +1841,7 @@
       <c r="E50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="53">
@@ -1894,13 +1894,13 @@
       <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
+      <c r="A56" s="56">
         <v>3</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="56" t="s">
         <v>96</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -1912,9 +1912,9 @@
       <c r="F56" s="55"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="20" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="64">
+      <c r="A59" s="60">
         <v>5</v>
       </c>
       <c r="B59" s="54" t="s">
@@ -1960,7 +1960,7 @@
       <c r="F59" s="55"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
       <c r="D60" s="19" t="s">
@@ -3305,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F152" s="55"/>
     </row>
@@ -3421,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="E160" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F160" s="55"/>
     </row>
@@ -3477,30 +3477,59 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="F158:F163"/>
-    <mergeCell ref="F118:F123"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="F134:F139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="F142:F147"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="F109:F115"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="F31:F41"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
@@ -3515,61 +3544,32 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="F31:F41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="F91:F97"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="F100:F106"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="F109:F115"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="F134:F139"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="F142:F147"/>
+    <mergeCell ref="F118:F123"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="F158:F163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
